--- a/src/test/data/inputs/join.xlsx
+++ b/src/test/data/inputs/join.xlsx
@@ -270,12 +270,21 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>シート間のリンク</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>シート間のリンク(リンク先)</t>
-    <rPh sb="12" eb="13">
+    <t>シート間の結合</t>
+    <rPh sb="5" eb="7">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シート間の結合(結合先)</t>
+    <rPh sb="5" eb="7">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
       <t>サキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -809,7 +818,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1023,7 +1032,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C3" sqref="C3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/data/inputs/join.xlsx
+++ b/src/test/data/inputs/join.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>クラス日本語名</t>
     <rPh sb="3" eb="6">
@@ -193,13 +193,6 @@
   </si>
   <si>
     <t>チェック</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>引数</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキスウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -286,6 +279,34 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>引数1</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>引数2</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>引数3</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>引数4</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -356,7 +377,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -430,30 +451,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="9"/>
       </left>
@@ -472,7 +469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -494,7 +491,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -513,13 +510,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,7 +829,7 @@
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -862,7 +853,7 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -874,7 +865,7 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -1032,7 +1023,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F3"/>
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1041,9 +1032,8 @@
     <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="8" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1052,7 +1042,7 @@
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -1112,24 +1102,30 @@
         <v>31</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
+        <v>50</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -1138,38 +1134,38 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1178,16 +1174,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1196,7 +1192,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>25</v>
@@ -1205,7 +1201,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1214,7 +1210,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>25</v>
@@ -1223,10 +1219,10 @@
         <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1234,7 +1230,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>25</v>
@@ -1243,7 +1239,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1251,8 +1247,7 @@
       <c r="H12" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E5:H5"/>
+  <mergeCells count="6">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A2:B2"/>
